--- a/lowe/edd/data/MSA$SHWS.xlsx
+++ b/lowe/edd/data/MSA$SHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JE36"/>
+  <dimension ref="A1:JF36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,12 +1044,12 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:265" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:266" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,14 +1059,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1074,12 +1074,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:266" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1872,11 +1872,14 @@
       <c r="JD7" s="7">
         <v>44378</v>
       </c>
-      <c r="JE7" s="8">
+      <c r="JE7" s="7">
         <v>44409</v>
       </c>
+      <c r="JF7" s="8">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="8" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2670,10 +2673,13 @@
         <v>1591100</v>
       </c>
       <c r="JE8" s="10">
-        <v>1597500</v>
+        <v>1594000</v>
+      </c>
+      <c r="JF8" s="10">
+        <v>1591800</v>
       </c>
     </row>
-    <row r="9" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3469,8 +3475,11 @@
       <c r="JE9" s="10">
         <v>262000</v>
       </c>
+      <c r="JF9" s="10">
+        <v>262400</v>
+      </c>
     </row>
-    <row r="10" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4264,10 +4273,13 @@
         <v>75000</v>
       </c>
       <c r="JE10" s="10">
-        <v>74700</v>
+        <v>75100</v>
+      </c>
+      <c r="JF10" s="10">
+        <v>75000</v>
       </c>
     </row>
-    <row r="11" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5061,10 +5073,13 @@
         <v>51400</v>
       </c>
       <c r="JE11" s="10">
-        <v>51400</v>
+        <v>51600</v>
+      </c>
+      <c r="JF11" s="10">
+        <v>51700</v>
       </c>
     </row>
-    <row r="12" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5858,10 +5873,13 @@
         <v>353000</v>
       </c>
       <c r="JE12" s="10">
-        <v>354500</v>
+        <v>354900</v>
+      </c>
+      <c r="JF12" s="10">
+        <v>355200</v>
       </c>
     </row>
-    <row r="13" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -6655,10 +6673,13 @@
         <v>38800</v>
       </c>
       <c r="JE13" s="10">
-        <v>39000</v>
+        <v>39400</v>
+      </c>
+      <c r="JF13" s="10">
+        <v>39500</v>
       </c>
     </row>
-    <row r="14" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7452,10 +7473,13 @@
         <v>4212200</v>
       </c>
       <c r="JE14" s="10">
-        <v>4290300</v>
+        <v>4289200</v>
+      </c>
+      <c r="JF14" s="10">
+        <v>4270800</v>
       </c>
     </row>
-    <row r="15" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -8249,10 +8273,13 @@
         <v>38300</v>
       </c>
       <c r="JE15" s="10">
-        <v>39500</v>
+        <v>39200</v>
+      </c>
+      <c r="JF15" s="10">
+        <v>39100</v>
       </c>
     </row>
-    <row r="16" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -9046,10 +9073,13 @@
         <v>70400</v>
       </c>
       <c r="JE16" s="10">
-        <v>70900</v>
+        <v>69300</v>
+      </c>
+      <c r="JF16" s="10">
+        <v>68700</v>
       </c>
     </row>
-    <row r="17" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -9843,10 +9873,13 @@
         <v>179900</v>
       </c>
       <c r="JE17" s="10">
-        <v>177900</v>
+        <v>176700</v>
+      </c>
+      <c r="JF17" s="10">
+        <v>178000</v>
       </c>
     </row>
-    <row r="18" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -10640,10 +10673,13 @@
         <v>67700</v>
       </c>
       <c r="JE18" s="10">
-        <v>68100</v>
+        <v>68400</v>
+      </c>
+      <c r="JF18" s="10">
+        <v>68400</v>
       </c>
     </row>
-    <row r="19" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -11437,10 +11473,13 @@
         <v>1096200</v>
       </c>
       <c r="JE19" s="10">
-        <v>1103100</v>
+        <v>1101200</v>
+      </c>
+      <c r="JF19" s="10">
+        <v>1101400</v>
       </c>
     </row>
-    <row r="20" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -12234,10 +12273,13 @@
         <v>297200</v>
       </c>
       <c r="JE20" s="10">
-        <v>298100</v>
+        <v>298700</v>
+      </c>
+      <c r="JF20" s="10">
+        <v>298800</v>
       </c>
     </row>
-    <row r="21" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -13031,10 +13073,13 @@
         <v>67000</v>
       </c>
       <c r="JE21" s="10">
-        <v>67300</v>
+        <v>67200</v>
+      </c>
+      <c r="JF21" s="10">
+        <v>67700</v>
       </c>
     </row>
-    <row r="22" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -13828,10 +13873,13 @@
         <v>1533700</v>
       </c>
       <c r="JE22" s="10">
-        <v>1535500</v>
+        <v>1535600</v>
+      </c>
+      <c r="JF22" s="10">
+        <v>1538900</v>
       </c>
     </row>
-    <row r="23" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14625,10 +14673,13 @@
         <v>991200</v>
       </c>
       <c r="JE23" s="10">
-        <v>993900</v>
+        <v>994200</v>
+      </c>
+      <c r="JF23" s="10">
+        <v>995300</v>
       </c>
     </row>
-    <row r="24" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -15422,10 +15473,13 @@
         <v>137200</v>
       </c>
       <c r="JE24" s="10">
+        <v>137600</v>
+      </c>
+      <c r="JF24" s="10">
         <v>136700</v>
       </c>
     </row>
-    <row r="25" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -16219,10 +16273,13 @@
         <v>1418900</v>
       </c>
       <c r="JE25" s="10">
-        <v>1412800</v>
+        <v>1414400</v>
+      </c>
+      <c r="JF25" s="10">
+        <v>1417600</v>
       </c>
     </row>
-    <row r="26" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -17016,10 +17073,13 @@
         <v>1090800</v>
       </c>
       <c r="JE26" s="10">
-        <v>1095100</v>
+        <v>1094500</v>
+      </c>
+      <c r="JF26" s="10">
+        <v>1100500</v>
       </c>
     </row>
-    <row r="27" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -17813,10 +17873,13 @@
         <v>1092900</v>
       </c>
       <c r="JE27" s="10">
-        <v>1098500</v>
+        <v>1098400</v>
+      </c>
+      <c r="JF27" s="10">
+        <v>1104400</v>
       </c>
     </row>
-    <row r="28" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -18610,10 +18673,13 @@
         <v>107700</v>
       </c>
       <c r="JE28" s="10">
-        <v>108300</v>
+        <v>108800</v>
+      </c>
+      <c r="JF28" s="10">
+        <v>109000</v>
       </c>
     </row>
-    <row r="29" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -19407,10 +19473,13 @@
         <v>108900</v>
       </c>
       <c r="JE29" s="10">
-        <v>109200</v>
+        <v>109700</v>
+      </c>
+      <c r="JF29" s="10">
+        <v>110200</v>
       </c>
     </row>
-    <row r="30" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -20204,10 +20273,13 @@
         <v>91900</v>
       </c>
       <c r="JE30" s="10">
-        <v>92800</v>
+        <v>93600</v>
+      </c>
+      <c r="JF30" s="10">
+        <v>93900</v>
       </c>
     </row>
-    <row r="31" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -21001,10 +21073,13 @@
         <v>185000</v>
       </c>
       <c r="JE31" s="10">
-        <v>186100</v>
+        <v>186700</v>
+      </c>
+      <c r="JF31" s="10">
+        <v>189500</v>
       </c>
     </row>
-    <row r="32" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -21798,10 +21873,13 @@
         <v>193300</v>
       </c>
       <c r="JE32" s="10">
-        <v>194500</v>
+        <v>194300</v>
+      </c>
+      <c r="JF32" s="10">
+        <v>193900</v>
       </c>
     </row>
-    <row r="33" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -22595,10 +22673,13 @@
         <v>249300</v>
       </c>
       <c r="JE33" s="10">
-        <v>250200</v>
+        <v>250300</v>
+      </c>
+      <c r="JF33" s="10">
+        <v>250500</v>
       </c>
     </row>
-    <row r="34" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -23392,10 +23473,13 @@
         <v>135000</v>
       </c>
       <c r="JE34" s="10">
-        <v>136100</v>
+        <v>135900</v>
+      </c>
+      <c r="JF34" s="10">
+        <v>135400</v>
       </c>
     </row>
-    <row r="35" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -24189,10 +24273,13 @@
         <v>124300</v>
       </c>
       <c r="JE35" s="10">
+        <v>124100</v>
+      </c>
+      <c r="JF35" s="10">
         <v>124900</v>
       </c>
     </row>
-    <row r="36" spans="1:265" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:266" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -24986,7 +25073,10 @@
         <v>46100</v>
       </c>
       <c r="JE36" s="10">
-        <v>46300</v>
+        <v>46200</v>
+      </c>
+      <c r="JF36" s="10">
+        <v>46200</v>
       </c>
     </row>
   </sheetData>

--- a/lowe/edd/data/MSA$SHWS.xlsx
+++ b/lowe/edd/data/MSA$SHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JF36"/>
+  <dimension ref="A1:JG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,12 +1044,12 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:266" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:267" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,14 +1059,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1074,12 +1074,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:267" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1875,11 +1875,14 @@
       <c r="JE7" s="7">
         <v>44409</v>
       </c>
-      <c r="JF7" s="8">
+      <c r="JF7" s="7">
         <v>44440</v>
       </c>
+      <c r="JG7" s="8">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="8" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2676,10 +2679,13 @@
         <v>1594000</v>
       </c>
       <c r="JF8" s="10">
-        <v>1591800</v>
+        <v>1593400</v>
+      </c>
+      <c r="JG8" s="10">
+        <v>1603600</v>
       </c>
     </row>
-    <row r="9" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3476,10 +3482,13 @@
         <v>262000</v>
       </c>
       <c r="JF9" s="10">
-        <v>262400</v>
+        <v>264100</v>
+      </c>
+      <c r="JG9" s="10">
+        <v>265100</v>
       </c>
     </row>
-    <row r="10" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4276,10 +4285,13 @@
         <v>75100</v>
       </c>
       <c r="JF10" s="10">
-        <v>75000</v>
+        <v>75300</v>
+      </c>
+      <c r="JG10" s="10">
+        <v>75300</v>
       </c>
     </row>
-    <row r="11" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5076,10 +5088,13 @@
         <v>51600</v>
       </c>
       <c r="JF11" s="10">
-        <v>51700</v>
+        <v>51500</v>
+      </c>
+      <c r="JG11" s="10">
+        <v>52000</v>
       </c>
     </row>
-    <row r="12" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5876,10 +5891,13 @@
         <v>354900</v>
       </c>
       <c r="JF12" s="10">
-        <v>355200</v>
+        <v>355900</v>
+      </c>
+      <c r="JG12" s="10">
+        <v>357200</v>
       </c>
     </row>
-    <row r="13" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -6676,10 +6694,13 @@
         <v>39400</v>
       </c>
       <c r="JF13" s="10">
-        <v>39500</v>
+        <v>39600</v>
+      </c>
+      <c r="JG13" s="10">
+        <v>40100</v>
       </c>
     </row>
-    <row r="14" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7476,10 +7497,13 @@
         <v>4289200</v>
       </c>
       <c r="JF14" s="10">
-        <v>4270800</v>
+        <v>4265900</v>
+      </c>
+      <c r="JG14" s="10">
+        <v>4281300</v>
       </c>
     </row>
-    <row r="15" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -8278,8 +8302,11 @@
       <c r="JF15" s="10">
         <v>39100</v>
       </c>
+      <c r="JG15" s="10">
+        <v>39300</v>
+      </c>
     </row>
-    <row r="16" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -9076,10 +9103,13 @@
         <v>69300</v>
       </c>
       <c r="JF16" s="10">
-        <v>68700</v>
+        <v>69000</v>
+      </c>
+      <c r="JG16" s="10">
+        <v>69100</v>
       </c>
     </row>
-    <row r="17" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -9876,10 +9906,13 @@
         <v>176700</v>
       </c>
       <c r="JF17" s="10">
-        <v>178000</v>
+        <v>177400</v>
+      </c>
+      <c r="JG17" s="10">
+        <v>177200</v>
       </c>
     </row>
-    <row r="18" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -10676,10 +10709,13 @@
         <v>68400</v>
       </c>
       <c r="JF18" s="10">
-        <v>68400</v>
+        <v>68600</v>
+      </c>
+      <c r="JG18" s="10">
+        <v>69000</v>
       </c>
     </row>
-    <row r="19" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -11476,10 +11512,13 @@
         <v>1101200</v>
       </c>
       <c r="JF19" s="10">
-        <v>1101400</v>
+        <v>1104500</v>
+      </c>
+      <c r="JG19" s="10">
+        <v>1106800</v>
       </c>
     </row>
-    <row r="20" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -12276,10 +12315,13 @@
         <v>298700</v>
       </c>
       <c r="JF20" s="10">
-        <v>298800</v>
+        <v>299500</v>
+      </c>
+      <c r="JG20" s="10">
+        <v>299400</v>
       </c>
     </row>
-    <row r="21" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -13076,10 +13118,13 @@
         <v>67200</v>
       </c>
       <c r="JF21" s="10">
-        <v>67700</v>
+        <v>67300</v>
+      </c>
+      <c r="JG21" s="10">
+        <v>67500</v>
       </c>
     </row>
-    <row r="22" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -13876,10 +13921,13 @@
         <v>1535600</v>
       </c>
       <c r="JF22" s="10">
-        <v>1538900</v>
+        <v>1543400</v>
+      </c>
+      <c r="JG22" s="10">
+        <v>1552300</v>
       </c>
     </row>
-    <row r="23" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14676,10 +14724,13 @@
         <v>994200</v>
       </c>
       <c r="JF23" s="10">
-        <v>995300</v>
+        <v>997000</v>
+      </c>
+      <c r="JG23" s="10">
+        <v>1002300</v>
       </c>
     </row>
-    <row r="24" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -15476,10 +15527,13 @@
         <v>137600</v>
       </c>
       <c r="JF24" s="10">
-        <v>136700</v>
+        <v>137100</v>
+      </c>
+      <c r="JG24" s="10">
+        <v>138900</v>
       </c>
     </row>
-    <row r="25" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -16276,10 +16330,13 @@
         <v>1414400</v>
       </c>
       <c r="JF25" s="10">
-        <v>1417600</v>
+        <v>1421800</v>
+      </c>
+      <c r="JG25" s="10">
+        <v>1433300</v>
       </c>
     </row>
-    <row r="26" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -17076,10 +17133,13 @@
         <v>1094500</v>
       </c>
       <c r="JF26" s="10">
-        <v>1100500</v>
+        <v>1102200</v>
+      </c>
+      <c r="JG26" s="10">
+        <v>1110900</v>
       </c>
     </row>
-    <row r="27" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -17876,10 +17936,13 @@
         <v>1098400</v>
       </c>
       <c r="JF27" s="10">
-        <v>1104400</v>
+        <v>1106300</v>
+      </c>
+      <c r="JG27" s="10">
+        <v>1114400</v>
       </c>
     </row>
-    <row r="28" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -18676,10 +18739,13 @@
         <v>108800</v>
       </c>
       <c r="JF28" s="10">
-        <v>109000</v>
+        <v>108900</v>
+      </c>
+      <c r="JG28" s="10">
+        <v>109400</v>
       </c>
     </row>
-    <row r="29" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -19476,10 +19542,13 @@
         <v>109700</v>
       </c>
       <c r="JF29" s="10">
-        <v>110200</v>
+        <v>109900</v>
+      </c>
+      <c r="JG29" s="10">
+        <v>110000</v>
       </c>
     </row>
-    <row r="30" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -20276,10 +20345,13 @@
         <v>93600</v>
       </c>
       <c r="JF30" s="10">
-        <v>93900</v>
+        <v>93500</v>
+      </c>
+      <c r="JG30" s="10">
+        <v>93100</v>
       </c>
     </row>
-    <row r="31" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -21076,10 +21148,13 @@
         <v>186700</v>
       </c>
       <c r="JF31" s="10">
-        <v>189500</v>
+        <v>189300</v>
+      </c>
+      <c r="JG31" s="10">
+        <v>186700</v>
       </c>
     </row>
-    <row r="32" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -21876,10 +21951,13 @@
         <v>194300</v>
       </c>
       <c r="JF32" s="10">
-        <v>193900</v>
+        <v>194300</v>
+      </c>
+      <c r="JG32" s="10">
+        <v>196000</v>
       </c>
     </row>
-    <row r="33" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -22676,10 +22754,13 @@
         <v>250300</v>
       </c>
       <c r="JF33" s="10">
-        <v>250500</v>
+        <v>250100</v>
+      </c>
+      <c r="JG33" s="10">
+        <v>249900</v>
       </c>
     </row>
-    <row r="34" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -23476,10 +23557,13 @@
         <v>135900</v>
       </c>
       <c r="JF34" s="10">
-        <v>135400</v>
+        <v>134800</v>
+      </c>
+      <c r="JG34" s="10">
+        <v>134600</v>
       </c>
     </row>
-    <row r="35" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -24276,10 +24360,13 @@
         <v>124100</v>
       </c>
       <c r="JF35" s="10">
-        <v>124900</v>
+        <v>125500</v>
+      </c>
+      <c r="JG35" s="10">
+        <v>126900</v>
       </c>
     </row>
-    <row r="36" spans="1:266" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:267" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -25076,7 +25163,10 @@
         <v>46200</v>
       </c>
       <c r="JF36" s="10">
-        <v>46200</v>
+        <v>46800</v>
+      </c>
+      <c r="JG36" s="10">
+        <v>46400</v>
       </c>
     </row>
   </sheetData>

--- a/lowe/edd/data/MSA$SHWS.xlsx
+++ b/lowe/edd/data/MSA$SHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JG36"/>
+  <dimension ref="A1:JI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,12 +1044,12 @@
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:267" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,14 +1059,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1074,12 +1074,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1878,11 +1878,17 @@
       <c r="JF7" s="7">
         <v>44440</v>
       </c>
-      <c r="JG7" s="8">
+      <c r="JG7" s="7">
         <v>44470</v>
       </c>
+      <c r="JH7" s="7">
+        <v>44501</v>
+      </c>
+      <c r="JI7" s="8">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="8" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2682,10 +2688,16 @@
         <v>1593400</v>
       </c>
       <c r="JG8" s="10">
-        <v>1603600</v>
+        <v>1604300</v>
+      </c>
+      <c r="JH8" s="10">
+        <v>1607900</v>
+      </c>
+      <c r="JI8" s="10">
+        <v>1615800</v>
       </c>
     </row>
-    <row r="9" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3485,10 +3497,16 @@
         <v>264100</v>
       </c>
       <c r="JG9" s="10">
-        <v>265100</v>
+        <v>265200</v>
+      </c>
+      <c r="JH9" s="10">
+        <v>263700</v>
+      </c>
+      <c r="JI9" s="10">
+        <v>263400</v>
       </c>
     </row>
-    <row r="10" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -4290,8 +4308,14 @@
       <c r="JG10" s="10">
         <v>75300</v>
       </c>
+      <c r="JH10" s="10">
+        <v>76000</v>
+      </c>
+      <c r="JI10" s="10">
+        <v>76000</v>
+      </c>
     </row>
-    <row r="11" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -5091,10 +5115,16 @@
         <v>51500</v>
       </c>
       <c r="JG11" s="10">
-        <v>52000</v>
+        <v>52200</v>
+      </c>
+      <c r="JH11" s="10">
+        <v>51700</v>
+      </c>
+      <c r="JI11" s="10">
+        <v>52100</v>
       </c>
     </row>
-    <row r="12" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5894,10 +5924,16 @@
         <v>355900</v>
       </c>
       <c r="JG12" s="10">
-        <v>357200</v>
+        <v>357100</v>
+      </c>
+      <c r="JH12" s="10">
+        <v>359500</v>
+      </c>
+      <c r="JI12" s="10">
+        <v>361900</v>
       </c>
     </row>
-    <row r="13" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -6699,8 +6735,14 @@
       <c r="JG13" s="10">
         <v>40100</v>
       </c>
+      <c r="JH13" s="10">
+        <v>40200</v>
+      </c>
+      <c r="JI13" s="10">
+        <v>40100</v>
+      </c>
     </row>
-    <row r="14" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7500,10 +7542,16 @@
         <v>4265900</v>
       </c>
       <c r="JG14" s="10">
-        <v>4281300</v>
+        <v>4290500</v>
+      </c>
+      <c r="JH14" s="10">
+        <v>4316000</v>
+      </c>
+      <c r="JI14" s="10">
+        <v>4343900</v>
       </c>
     </row>
-    <row r="15" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -8303,10 +8351,16 @@
         <v>39100</v>
       </c>
       <c r="JG15" s="10">
+        <v>39200</v>
+      </c>
+      <c r="JH15" s="10">
         <v>39300</v>
       </c>
+      <c r="JI15" s="10">
+        <v>39600</v>
+      </c>
     </row>
-    <row r="16" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -9106,10 +9160,16 @@
         <v>69000</v>
       </c>
       <c r="JG16" s="10">
-        <v>69100</v>
+        <v>68800</v>
+      </c>
+      <c r="JH16" s="10">
+        <v>68700</v>
+      </c>
+      <c r="JI16" s="10">
+        <v>69000</v>
       </c>
     </row>
-    <row r="17" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -9909,10 +9969,16 @@
         <v>177400</v>
       </c>
       <c r="JG17" s="10">
-        <v>177200</v>
+        <v>176900</v>
+      </c>
+      <c r="JH17" s="10">
+        <v>178200</v>
+      </c>
+      <c r="JI17" s="10">
+        <v>178700</v>
       </c>
     </row>
-    <row r="18" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -10712,10 +10778,16 @@
         <v>68600</v>
       </c>
       <c r="JG18" s="10">
+        <v>68800</v>
+      </c>
+      <c r="JH18" s="10">
         <v>69000</v>
       </c>
+      <c r="JI18" s="10">
+        <v>68400</v>
+      </c>
     </row>
-    <row r="19" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -11515,10 +11587,16 @@
         <v>1104500</v>
       </c>
       <c r="JG19" s="10">
-        <v>1106800</v>
+        <v>1108600</v>
+      </c>
+      <c r="JH19" s="10">
+        <v>1112900</v>
+      </c>
+      <c r="JI19" s="10">
+        <v>1119300</v>
       </c>
     </row>
-    <row r="20" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -12318,10 +12396,16 @@
         <v>299500</v>
       </c>
       <c r="JG20" s="10">
-        <v>299400</v>
+        <v>298400</v>
+      </c>
+      <c r="JH20" s="10">
+        <v>299200</v>
+      </c>
+      <c r="JI20" s="10">
+        <v>300500</v>
       </c>
     </row>
-    <row r="21" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -13121,10 +13205,16 @@
         <v>67300</v>
       </c>
       <c r="JG21" s="10">
-        <v>67500</v>
+        <v>67700</v>
+      </c>
+      <c r="JH21" s="10">
+        <v>68300</v>
+      </c>
+      <c r="JI21" s="10">
+        <v>68500</v>
       </c>
     </row>
-    <row r="22" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -13924,10 +14014,16 @@
         <v>1543400</v>
       </c>
       <c r="JG22" s="10">
-        <v>1552300</v>
+        <v>1553800</v>
+      </c>
+      <c r="JH22" s="10">
+        <v>1550100</v>
+      </c>
+      <c r="JI22" s="10">
+        <v>1554500</v>
       </c>
     </row>
-    <row r="23" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -14727,10 +14823,16 @@
         <v>997000</v>
       </c>
       <c r="JG23" s="10">
-        <v>1002300</v>
+        <v>1001200</v>
+      </c>
+      <c r="JH23" s="10">
+        <v>1002100</v>
+      </c>
+      <c r="JI23" s="10">
+        <v>1004600</v>
       </c>
     </row>
-    <row r="24" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -15530,10 +15632,16 @@
         <v>137100</v>
       </c>
       <c r="JG24" s="10">
+        <v>138700</v>
+      </c>
+      <c r="JH24" s="10">
         <v>138900</v>
       </c>
+      <c r="JI24" s="10">
+        <v>139800</v>
+      </c>
     </row>
-    <row r="25" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -16333,10 +16441,16 @@
         <v>1421800</v>
       </c>
       <c r="JG25" s="10">
-        <v>1433300</v>
+        <v>1435800</v>
+      </c>
+      <c r="JH25" s="10">
+        <v>1438900</v>
+      </c>
+      <c r="JI25" s="10">
+        <v>1443100</v>
       </c>
     </row>
-    <row r="26" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -17136,10 +17250,16 @@
         <v>1102200</v>
       </c>
       <c r="JG26" s="10">
-        <v>1110900</v>
+        <v>1110600</v>
+      </c>
+      <c r="JH26" s="10">
+        <v>1118400</v>
+      </c>
+      <c r="JI26" s="10">
+        <v>1125400</v>
       </c>
     </row>
-    <row r="27" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -17939,10 +18059,16 @@
         <v>1106300</v>
       </c>
       <c r="JG27" s="10">
-        <v>1114400</v>
+        <v>1113800</v>
+      </c>
+      <c r="JH27" s="10">
+        <v>1117500</v>
+      </c>
+      <c r="JI27" s="10">
+        <v>1124700</v>
       </c>
     </row>
-    <row r="28" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -18742,10 +18868,16 @@
         <v>108900</v>
       </c>
       <c r="JG28" s="10">
-        <v>109400</v>
+        <v>109800</v>
+      </c>
+      <c r="JH28" s="10">
+        <v>110100</v>
+      </c>
+      <c r="JI28" s="10">
+        <v>110400</v>
       </c>
     </row>
-    <row r="29" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -19545,10 +19677,16 @@
         <v>109900</v>
       </c>
       <c r="JG29" s="10">
-        <v>110000</v>
+        <v>110500</v>
+      </c>
+      <c r="JH29" s="10">
+        <v>110900</v>
+      </c>
+      <c r="JI29" s="10">
+        <v>110500</v>
       </c>
     </row>
-    <row r="30" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -20348,10 +20486,16 @@
         <v>93500</v>
       </c>
       <c r="JG30" s="10">
-        <v>93100</v>
+        <v>93500</v>
+      </c>
+      <c r="JH30" s="10">
+        <v>93600</v>
+      </c>
+      <c r="JI30" s="10">
+        <v>95200</v>
       </c>
     </row>
-    <row r="31" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -21151,10 +21295,16 @@
         <v>189300</v>
       </c>
       <c r="JG31" s="10">
-        <v>186700</v>
+        <v>187100</v>
+      </c>
+      <c r="JH31" s="10">
+        <v>187700</v>
+      </c>
+      <c r="JI31" s="10">
+        <v>188900</v>
       </c>
     </row>
-    <row r="32" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -21956,8 +22106,14 @@
       <c r="JG32" s="10">
         <v>196000</v>
       </c>
+      <c r="JH32" s="10">
+        <v>196900</v>
+      </c>
+      <c r="JI32" s="10">
+        <v>197400</v>
+      </c>
     </row>
-    <row r="33" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -22757,10 +22913,16 @@
         <v>250100</v>
       </c>
       <c r="JG33" s="10">
-        <v>249900</v>
+        <v>248800</v>
+      </c>
+      <c r="JH33" s="10">
+        <v>249200</v>
+      </c>
+      <c r="JI33" s="10">
+        <v>250000</v>
       </c>
     </row>
-    <row r="34" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -23560,10 +23722,16 @@
         <v>134800</v>
       </c>
       <c r="JG34" s="10">
-        <v>134600</v>
+        <v>134800</v>
+      </c>
+      <c r="JH34" s="10">
+        <v>135500</v>
+      </c>
+      <c r="JI34" s="10">
+        <v>136300</v>
       </c>
     </row>
-    <row r="35" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -24363,10 +24531,16 @@
         <v>125500</v>
       </c>
       <c r="JG35" s="10">
-        <v>126900</v>
+        <v>127000</v>
+      </c>
+      <c r="JH35" s="10">
+        <v>128200</v>
+      </c>
+      <c r="JI35" s="10">
+        <v>127500</v>
       </c>
     </row>
-    <row r="36" spans="1:267" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -25166,7 +25340,13 @@
         <v>46800</v>
       </c>
       <c r="JG36" s="10">
-        <v>46400</v>
+        <v>46700</v>
+      </c>
+      <c r="JH36" s="10">
+        <v>47000</v>
+      </c>
+      <c r="JI36" s="10">
+        <v>47300</v>
       </c>
     </row>
   </sheetData>
